--- a/classificações/classificados-st-ult5-pt-small.xlsx
+++ b/classificações/classificados-st-ult5-pt-small.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tecnologia da informação</t>
+          <t>Outras compras</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Outras compras</t>
+          <t>Tecnologia da informação</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tecnologia da informação</t>
+          <t>Outras compras</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tecnologia da informação</t>
+          <t>Outras compras</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Outras compras</t>
+          <t>Tecnologia da informação</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tecnologia da informação</t>
+          <t>Outras compras</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Outras compras</t>
+          <t>Tecnologia da informação</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tecnologia da informação</t>
+          <t>Outras compras</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tecnologia da informação</t>
+          <t>Outras compras</t>
         </is>
       </c>
     </row>
